--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7205" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="784">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1557,9 +1557,6 @@
     <t>Observation.bodySite.coding.code</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Observation.bodySite.coding.display</t>
   </si>
   <si>
@@ -1628,7 +1625,7 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
 Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>
@@ -10752,7 +10749,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>122</v>
@@ -10767,7 +10764,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10874,7 +10871,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -11112,7 +11109,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>122</v>
@@ -11127,7 +11124,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -11234,7 +11231,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -11354,7 +11351,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11414,9 +11411,7 @@
       <c r="M72" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>312</v>
       </c>
@@ -11476,7 +11471,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11502,10 +11497,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11536,9 +11531,7 @@
       <c r="M73" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>321</v>
       </c>
@@ -11598,7 +11591,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11624,10 +11617,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11720,7 +11713,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11746,10 +11739,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11842,7 +11835,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11868,10 +11861,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11897,16 +11890,16 @@
         <v>261</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11935,7 +11928,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11953,7 +11946,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11974,10 +11967,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11988,10 +11981,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12014,16 +12007,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -12073,7 +12066,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12091,27 +12084,27 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12134,16 +12127,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12193,7 +12186,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12211,27 +12204,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP78" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>524</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12254,19 +12247,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12315,7 +12308,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12327,19 +12320,19 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12350,10 +12343,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12468,10 +12461,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12588,14 +12581,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12617,10 +12610,10 @@
         <v>114</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>117</v>
@@ -12675,7 +12668,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12710,10 +12703,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12736,13 +12729,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12793,7 +12786,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12802,7 +12795,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12814,10 +12807,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12828,10 +12821,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12854,13 +12847,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12911,7 +12904,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12920,7 +12913,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12932,10 +12925,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12946,10 +12939,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12975,16 +12968,16 @@
         <v>261</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -13012,11 +13005,11 @@
         <v>177</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
       </c>
@@ -13033,7 +13026,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13051,10 +13044,10 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>468</v>
@@ -13068,10 +13061,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13097,16 +13090,16 @@
         <v>261</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -13134,10 +13127,10 @@
         <v>253</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -13155,7 +13148,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13173,10 +13166,10 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>468</v>
@@ -13190,10 +13183,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13308,10 +13301,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13402,7 +13395,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>122</v>
@@ -13417,7 +13410,7 @@
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13428,10 +13421,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13524,7 +13517,7 @@
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13550,10 +13543,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13668,10 +13661,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13762,7 +13755,7 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>122</v>
@@ -13777,7 +13770,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13788,10 +13781,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13884,7 +13877,7 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13910,10 +13903,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14004,7 +13997,7 @@
         <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -14030,10 +14023,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14064,9 +14057,7 @@
       <c r="M94" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N94" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>312</v>
       </c>
@@ -14126,7 +14117,7 @@
         <v>93</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -14152,10 +14143,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14186,9 +14177,7 @@
       <c r="M95" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>321</v>
       </c>
@@ -14248,7 +14237,7 @@
         <v>93</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -14274,10 +14263,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14370,7 +14359,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14396,10 +14385,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14492,7 +14481,7 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14518,10 +14507,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14544,17 +14533,17 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14603,7 +14592,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14627,7 +14616,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14638,10 +14627,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14667,10 +14656,10 @@
         <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14721,7 +14710,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14742,10 +14731,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14756,10 +14745,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14782,16 +14771,16 @@
         <v>94</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14841,7 +14830,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14862,10 +14851,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14876,10 +14865,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14902,16 +14891,16 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14961,7 +14950,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14982,10 +14971,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14996,10 +14985,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15007,7 +14996,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>81</v>
@@ -15022,19 +15011,19 @@
         <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15071,7 +15060,7 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
@@ -15081,7 +15070,7 @@
         <v>120</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15093,19 +15082,19 @@
         <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -15116,10 +15105,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15234,10 +15223,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15354,14 +15343,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15383,10 +15372,10 @@
         <v>114</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>117</v>
@@ -15441,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15476,10 +15465,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15505,16 +15494,16 @@
         <v>261</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15563,7 +15552,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>93</v>
@@ -15581,7 +15570,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>354</v>
@@ -15598,10 +15587,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15624,16 +15613,16 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>440</v>
@@ -15664,37 +15653,37 @@
         <v>253</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="Z107" t="s" s="2">
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI107" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>105</v>
@@ -15703,7 +15692,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>445</v>
@@ -15720,10 +15709,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15749,13 +15738,13 @@
         <v>261</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>454</v>
@@ -15807,7 +15796,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15816,7 +15805,7 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15842,10 +15831,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15908,7 +15897,7 @@
         <v>155</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>465</v>
@@ -15929,7 +15918,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15964,10 +15953,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15993,16 +15982,16 @@
         <v>83</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M110" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="N110" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16051,7 +16040,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16072,10 +16061,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16086,13 +16075,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>82</v>
@@ -16114,19 +16103,19 @@
         <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -16175,7 +16164,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16187,19 +16176,19 @@
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AK111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AN111" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16210,10 +16199,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16328,10 +16317,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16448,14 +16437,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16477,10 +16466,10 @@
         <v>114</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>117</v>
@@ -16535,7 +16524,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16570,14 +16559,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16599,16 +16588,16 @@
         <v>261</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>348</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16657,7 +16646,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>93</v>
@@ -16675,7 +16664,7 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>354</v>
@@ -16692,10 +16681,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16810,10 +16799,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16930,10 +16919,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16959,10 +16948,10 @@
         <v>151</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>281</v>
@@ -17050,13 +17039,13 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>82</v>
@@ -17081,10 +17070,10 @@
         <v>151</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>281</v>
@@ -17174,10 +17163,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B120" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17292,10 +17281,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17412,10 +17401,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B122" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17534,10 +17523,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17654,10 +17643,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17697,7 +17686,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>82</v>
@@ -17774,10 +17763,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17894,10 +17883,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B126" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18016,10 +18005,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18138,10 +18127,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18167,13 +18156,13 @@
         <v>437</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>440</v>
@@ -18204,10 +18193,10 @@
         <v>253</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18223,7 +18212,7 @@
         <v>120</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18232,7 +18221,7 @@
         <v>93</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -18241,7 +18230,7 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>445</v>
@@ -18258,10 +18247,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18376,10 +18365,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B130" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18496,10 +18485,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B131" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18522,19 +18511,19 @@
         <v>94</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="N131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18583,7 +18572,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18604,10 +18593,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AN131" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18618,10 +18607,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18647,20 +18636,20 @@
         <v>173</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="P132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q132" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="P132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q132" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="R132" t="s" s="2">
         <v>82</v>
@@ -18684,28 +18673,28 @@
         <v>253</v>
       </c>
       <c r="Y132" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="Z132" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="Z132" t="s" s="2">
+      <c r="AA132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF132" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18726,10 +18715,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18740,10 +18729,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18769,14 +18758,14 @@
         <v>107</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18825,7 +18814,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18846,10 +18835,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AN133" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18860,10 +18849,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18889,72 +18878,72 @@
         <v>135</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF134" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="S134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF134" t="s" s="2">
+      <c r="AG134" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI134" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>105</v>
@@ -18966,10 +18955,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18980,10 +18969,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19009,65 +18998,65 @@
         <v>173</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="M135" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF135" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19088,10 +19077,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -19102,10 +19091,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19131,13 +19120,13 @@
         <v>261</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>454</v>
@@ -19189,7 +19178,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19198,7 +19187,7 @@
         <v>93</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>105</v>
@@ -19224,10 +19213,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19290,7 +19279,7 @@
         <v>155</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>465</v>
@@ -19311,7 +19300,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19346,10 +19335,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19375,16 +19364,16 @@
         <v>83</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M138" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="N138" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O138" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19433,7 +19422,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19454,10 +19443,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -19468,13 +19457,13 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19496,19 +19485,19 @@
         <v>94</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N139" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O139" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19557,7 +19546,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19569,19 +19558,19 @@
         <v>82</v>
       </c>
       <c r="AJ139" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM139" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AK139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM139" t="s" s="2">
+      <c r="AN139" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19592,10 +19581,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19710,10 +19699,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19830,14 +19819,14 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19859,10 +19848,10 @@
         <v>114</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>117</v>
@@ -19917,7 +19906,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19952,10 +19941,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19981,16 +19970,16 @@
         <v>261</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>348</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20039,7 +20028,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>93</v>
@@ -20057,7 +20046,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>354</v>
@@ -20074,10 +20063,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20192,10 +20181,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20312,10 +20301,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20341,10 +20330,10 @@
         <v>151</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>281</v>
@@ -20432,13 +20421,13 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C147" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20463,10 +20452,10 @@
         <v>151</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>281</v>
@@ -20556,10 +20545,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20674,10 +20663,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20794,10 +20783,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20916,10 +20905,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21036,10 +21025,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21079,7 +21068,7 @@
       </c>
       <c r="Q152" s="2"/>
       <c r="R152" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S152" t="s" s="2">
         <v>82</v>
@@ -21156,10 +21145,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21276,10 +21265,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21398,10 +21387,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21520,10 +21509,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21549,13 +21538,13 @@
         <v>437</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>440</v>
@@ -21586,10 +21575,10 @@
         <v>253</v>
       </c>
       <c r="Y156" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z156" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21605,7 +21594,7 @@
         <v>120</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21614,7 +21603,7 @@
         <v>93</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>105</v>
@@ -21623,7 +21612,7 @@
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>445</v>
@@ -21640,10 +21629,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21758,10 +21747,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21878,10 +21867,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21904,19 +21893,19 @@
         <v>94</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -21965,7 +21954,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21986,10 +21975,10 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AN159" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -22000,10 +21989,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22029,20 +22018,20 @@
         <v>173</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="P160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q160" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="P160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q160" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>82</v>
@@ -22066,28 +22055,28 @@
         <v>253</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="Z160" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="Z160" t="s" s="2">
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22108,10 +22097,10 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AN160" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -22122,10 +22111,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22151,14 +22140,14 @@
         <v>107</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22207,7 +22196,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22228,10 +22217,10 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AN161" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22242,10 +22231,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22271,72 +22260,72 @@
         <v>135</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF162" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="S162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF162" t="s" s="2">
+      <c r="AG162" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI162" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>105</v>
@@ -22348,10 +22337,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22362,10 +22351,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22391,65 +22380,65 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="M163" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF163" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22470,10 +22459,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22484,10 +22473,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22513,13 +22502,13 @@
         <v>261</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>454</v>
@@ -22571,7 +22560,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22580,7 +22569,7 @@
         <v>93</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>105</v>
@@ -22606,10 +22595,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22672,7 +22661,7 @@
         <v>155</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>465</v>
@@ -22693,7 +22682,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22728,10 +22717,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22757,16 +22746,16 @@
         <v>83</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M166" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="N166" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O166" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22815,7 +22804,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22836,10 +22825,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN166" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22850,13 +22839,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -22878,19 +22867,19 @@
         <v>94</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N167" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O167" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22939,7 +22928,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22951,19 +22940,19 @@
         <v>82</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM167" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AK167" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM167" t="s" s="2">
+      <c r="AN167" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22974,10 +22963,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23092,10 +23081,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23212,14 +23201,14 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -23241,10 +23230,10 @@
         <v>114</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>117</v>
@@ -23299,7 +23288,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23334,10 +23323,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23363,16 +23352,16 @@
         <v>261</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23421,7 +23410,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>93</v>
@@ -23439,7 +23428,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>354</v>
@@ -23456,10 +23445,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23574,10 +23563,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23694,10 +23683,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23814,13 +23803,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -23938,10 +23927,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24056,10 +24045,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24176,10 +24165,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24298,10 +24287,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24418,10 +24407,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24447,10 +24436,10 @@
         <v>173</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -24461,7 +24450,7 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24538,10 +24527,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24658,10 +24647,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24780,10 +24769,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24902,10 +24891,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24928,16 +24917,16 @@
         <v>94</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>440</v>
@@ -24968,37 +24957,37 @@
         <v>253</v>
       </c>
       <c r="Y184" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z184" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="Z184" t="s" s="2">
+      <c r="AA184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI184" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>105</v>
@@ -25007,7 +24996,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>445</v>
@@ -25024,10 +25013,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25053,13 +25042,13 @@
         <v>261</v>
       </c>
       <c r="L185" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>454</v>
@@ -25111,7 +25100,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25120,7 +25109,7 @@
         <v>93</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>105</v>
@@ -25146,10 +25135,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25212,7 +25201,7 @@
         <v>155</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>465</v>
@@ -25233,7 +25222,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25268,10 +25257,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25297,16 +25286,16 @@
         <v>83</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M187" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="N187" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O187" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25355,7 +25344,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25376,10 +25365,10 @@
         <v>82</v>
       </c>
       <c r="AM187" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN187" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7205" uniqueCount="785">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1555,6 +1555,9 @@
   </si>
   <si>
     <t>Observation.bodySite.coding.code</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.display</t>
@@ -10749,7 +10752,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>122</v>
@@ -10764,7 +10767,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10871,7 +10874,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -11109,7 +11112,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>122</v>
@@ -11124,7 +11127,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -11231,7 +11234,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -11351,7 +11354,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11411,7 +11414,9 @@
       <c r="M72" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>312</v>
       </c>
@@ -11471,7 +11476,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11497,10 +11502,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11531,7 +11536,9 @@
       <c r="M73" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>321</v>
       </c>
@@ -11591,7 +11598,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11617,10 +11624,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11713,7 +11720,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11739,10 +11746,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11835,7 +11842,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11861,10 +11868,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11890,16 +11897,16 @@
         <v>261</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11928,7 +11935,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11946,7 +11953,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11967,10 +11974,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11981,10 +11988,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12007,16 +12014,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -12066,7 +12073,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12084,27 +12091,27 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12127,16 +12134,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12186,7 +12193,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12204,27 +12211,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12247,19 +12254,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12308,7 +12315,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12320,7 +12327,7 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -12329,10 +12336,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12343,10 +12350,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12461,10 +12468,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12581,14 +12588,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12610,10 +12617,10 @@
         <v>114</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>117</v>
@@ -12668,7 +12675,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12703,10 +12710,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12729,13 +12736,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12786,7 +12793,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12795,7 +12802,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12807,10 +12814,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12821,10 +12828,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12847,13 +12854,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12904,7 +12911,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12913,7 +12920,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12925,10 +12932,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12939,10 +12946,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12968,16 +12975,16 @@
         <v>261</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -13005,10 +13012,10 @@
         <v>177</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -13026,7 +13033,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13051,10 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>468</v>
@@ -13061,10 +13068,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13090,16 +13097,16 @@
         <v>261</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -13127,10 +13134,10 @@
         <v>253</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -13148,7 +13155,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13166,10 +13173,10 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>468</v>
@@ -13183,10 +13190,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13301,10 +13308,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13395,7 +13402,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>122</v>
@@ -13410,7 +13417,7 @@
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13421,10 +13428,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13517,7 +13524,7 @@
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13543,10 +13550,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13661,10 +13668,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13755,7 +13762,7 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>122</v>
@@ -13770,7 +13777,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13781,10 +13788,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13877,7 +13884,7 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13903,10 +13910,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13997,7 +14004,7 @@
         <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -14023,10 +14030,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14057,7 +14064,9 @@
       <c r="M94" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>312</v>
       </c>
@@ -14117,7 +14126,7 @@
         <v>93</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -14143,10 +14152,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14177,7 +14186,9 @@
       <c r="M95" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>321</v>
       </c>
@@ -14237,7 +14248,7 @@
         <v>93</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -14263,10 +14274,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14359,7 +14370,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14385,10 +14396,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14481,7 +14492,7 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14507,10 +14518,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14533,17 +14544,17 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14592,7 +14603,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14616,7 +14627,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14627,10 +14638,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14656,10 +14667,10 @@
         <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14710,7 +14721,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14731,10 +14742,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14745,10 +14756,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14771,16 +14782,16 @@
         <v>94</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14830,7 +14841,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14851,10 +14862,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14865,10 +14876,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14891,16 +14902,16 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14950,7 +14961,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14971,10 +14982,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14985,10 +14996,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14996,7 +15007,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>81</v>
@@ -15011,19 +15022,19 @@
         <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15060,7 +15071,7 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
@@ -15070,7 +15081,7 @@
         <v>120</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15082,7 +15093,7 @@
         <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -15091,10 +15102,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -15105,10 +15116,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15223,10 +15234,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15343,14 +15354,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15372,10 +15383,10 @@
         <v>114</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>117</v>
@@ -15430,7 +15441,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15465,10 +15476,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15494,16 +15505,16 @@
         <v>261</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15552,7 +15563,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>93</v>
@@ -15570,7 +15581,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>354</v>
@@ -15587,10 +15598,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15613,16 +15624,16 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>440</v>
@@ -15653,10 +15664,10 @@
         <v>253</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15674,7 +15685,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15683,7 +15694,7 @@
         <v>93</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>105</v>
@@ -15692,7 +15703,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>445</v>
@@ -15709,10 +15720,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15738,13 +15749,13 @@
         <v>261</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>454</v>
@@ -15796,7 +15807,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15805,7 +15816,7 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15831,10 +15842,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15897,7 +15908,7 @@
         <v>155</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>465</v>
@@ -15918,7 +15929,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15953,10 +15964,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15982,16 +15993,16 @@
         <v>83</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16040,7 +16051,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16061,10 +16072,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16075,13 +16086,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>82</v>
@@ -16103,19 +16114,19 @@
         <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -16164,7 +16175,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16176,7 +16187,7 @@
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -16185,10 +16196,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16199,10 +16210,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16317,10 +16328,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16437,14 +16448,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16466,10 +16477,10 @@
         <v>114</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>117</v>
@@ -16524,7 +16535,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16559,14 +16570,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16588,16 +16599,16 @@
         <v>261</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>348</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16646,7 +16657,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>93</v>
@@ -16664,7 +16675,7 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>354</v>
@@ -16681,10 +16692,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16799,10 +16810,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16919,10 +16930,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16948,10 +16959,10 @@
         <v>151</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>281</v>
@@ -17039,13 +17050,13 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>82</v>
@@ -17070,10 +17081,10 @@
         <v>151</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>281</v>
@@ -17163,10 +17174,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17281,10 +17292,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17401,10 +17412,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17523,10 +17534,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17643,10 +17654,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17686,7 +17697,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>82</v>
@@ -17763,10 +17774,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17883,10 +17894,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18005,10 +18016,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18127,10 +18138,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18156,13 +18167,13 @@
         <v>437</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>440</v>
@@ -18193,10 +18204,10 @@
         <v>253</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18212,7 +18223,7 @@
         <v>120</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18221,7 +18232,7 @@
         <v>93</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -18230,7 +18241,7 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>445</v>
@@ -18247,10 +18258,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18365,10 +18376,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18485,10 +18496,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18511,19 +18522,19 @@
         <v>94</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18572,7 +18583,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18593,10 +18604,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18607,10 +18618,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18636,20 +18647,20 @@
         <v>173</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q132" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="R132" t="s" s="2">
         <v>82</v>
@@ -18673,10 +18684,10 @@
         <v>253</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18694,7 +18705,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18715,10 +18726,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18729,10 +18740,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18758,14 +18769,14 @@
         <v>107</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18814,7 +18825,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18835,10 +18846,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18849,10 +18860,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18878,21 +18889,21 @@
         <v>135</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>82</v>
@@ -18934,7 +18945,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18943,7 +18954,7 @@
         <v>93</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>105</v>
@@ -18955,10 +18966,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18969,10 +18980,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18998,23 +19009,23 @@
         <v>173</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>82</v>
@@ -19056,7 +19067,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19077,10 +19088,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -19091,10 +19102,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19120,13 +19131,13 @@
         <v>261</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>454</v>
@@ -19178,7 +19189,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19187,7 +19198,7 @@
         <v>93</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>105</v>
@@ -19213,10 +19224,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19279,7 +19290,7 @@
         <v>155</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>465</v>
@@ -19300,7 +19311,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19335,10 +19346,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19364,16 +19375,16 @@
         <v>83</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19422,7 +19433,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19443,10 +19454,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -19457,13 +19468,13 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19485,19 +19496,19 @@
         <v>94</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19546,7 +19557,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19558,7 +19569,7 @@
         <v>82</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
@@ -19567,10 +19578,10 @@
         <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19581,10 +19592,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19699,10 +19710,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19819,14 +19830,14 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19848,10 +19859,10 @@
         <v>114</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>117</v>
@@ -19906,7 +19917,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19941,10 +19952,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19970,16 +19981,16 @@
         <v>261</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>348</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20028,7 +20039,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>93</v>
@@ -20046,7 +20057,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>354</v>
@@ -20063,10 +20074,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20181,10 +20192,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20301,10 +20312,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20330,10 +20341,10 @@
         <v>151</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>281</v>
@@ -20421,13 +20432,13 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20452,10 +20463,10 @@
         <v>151</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>281</v>
@@ -20545,10 +20556,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20663,10 +20674,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20783,10 +20794,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20905,10 +20916,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21025,10 +21036,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21068,7 +21079,7 @@
       </c>
       <c r="Q152" s="2"/>
       <c r="R152" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="S152" t="s" s="2">
         <v>82</v>
@@ -21145,10 +21156,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21265,10 +21276,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21387,10 +21398,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21509,10 +21520,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21538,13 +21549,13 @@
         <v>437</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>440</v>
@@ -21575,10 +21586,10 @@
         <v>253</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21594,7 +21605,7 @@
         <v>120</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21603,7 +21614,7 @@
         <v>93</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>105</v>
@@ -21612,7 +21623,7 @@
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>445</v>
@@ -21629,10 +21640,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21747,10 +21758,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21867,10 +21878,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21893,19 +21904,19 @@
         <v>94</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -21954,7 +21965,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21975,10 +21986,10 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -21989,10 +22000,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22018,20 +22029,20 @@
         <v>173</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q160" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>82</v>
@@ -22055,10 +22066,10 @@
         <v>253</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22076,7 +22087,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22097,10 +22108,10 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -22111,10 +22122,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22140,14 +22151,14 @@
         <v>107</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22196,7 +22207,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22217,10 +22228,10 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22231,10 +22242,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22260,21 +22271,21 @@
         <v>135</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>82</v>
@@ -22316,7 +22327,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22325,7 +22336,7 @@
         <v>93</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>105</v>
@@ -22337,10 +22348,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22351,10 +22362,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22380,23 +22391,23 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>82</v>
@@ -22438,7 +22449,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22459,10 +22470,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22473,10 +22484,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22502,13 +22513,13 @@
         <v>261</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>454</v>
@@ -22560,7 +22571,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22569,7 +22580,7 @@
         <v>93</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>105</v>
@@ -22595,10 +22606,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22661,7 +22672,7 @@
         <v>155</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>465</v>
@@ -22682,7 +22693,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22717,10 +22728,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22746,16 +22757,16 @@
         <v>83</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22804,7 +22815,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22825,10 +22836,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22839,13 +22850,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -22867,19 +22878,19 @@
         <v>94</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22928,7 +22939,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22940,7 +22951,7 @@
         <v>82</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
@@ -22949,10 +22960,10 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22963,10 +22974,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23081,10 +23092,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23201,14 +23212,14 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -23230,10 +23241,10 @@
         <v>114</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>117</v>
@@ -23288,7 +23299,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23323,10 +23334,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23352,16 +23363,16 @@
         <v>261</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23410,7 +23421,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>93</v>
@@ -23428,7 +23439,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>354</v>
@@ -23445,10 +23456,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23563,10 +23574,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23683,10 +23694,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23803,13 +23814,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -23927,10 +23938,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24045,10 +24056,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24165,10 +24176,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24287,10 +24298,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24407,10 +24418,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24436,10 +24447,10 @@
         <v>173</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -24450,7 +24461,7 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24527,10 +24538,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24647,10 +24658,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24769,10 +24780,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24891,10 +24902,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24917,16 +24928,16 @@
         <v>94</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>440</v>
@@ -24957,10 +24968,10 @@
         <v>253</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -24978,7 +24989,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24987,7 +24998,7 @@
         <v>93</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>105</v>
@@ -24996,7 +25007,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>445</v>
@@ -25013,10 +25024,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25042,13 +25053,13 @@
         <v>261</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>454</v>
@@ -25100,7 +25111,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25109,7 +25120,7 @@
         <v>93</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>105</v>
@@ -25135,10 +25146,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25201,7 +25212,7 @@
         <v>155</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>465</v>
@@ -25222,7 +25233,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25257,10 +25268,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25286,16 +25297,16 @@
         <v>83</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25344,7 +25355,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25365,10 +25376,10 @@
         <v>82</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
